--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Jam2-Jam3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Jam2-Jam3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Jam3</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>83.6260662014964</v>
+        <v>91.06651433333333</v>
       </c>
       <c r="H2">
-        <v>83.6260662014964</v>
+        <v>273.199543</v>
       </c>
       <c r="I2">
-        <v>0.9199849828325732</v>
+        <v>0.9122283134451645</v>
       </c>
       <c r="J2">
-        <v>0.9199849828325732</v>
+        <v>0.9122283134451646</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.3997858841174</v>
+        <v>13.27799533333333</v>
       </c>
       <c r="N2">
-        <v>11.3997858841174</v>
+        <v>39.833986</v>
       </c>
       <c r="O2">
-        <v>0.2002626040867501</v>
+        <v>0.1798393190154295</v>
       </c>
       <c r="P2">
-        <v>0.2002626040867501</v>
+        <v>0.1798393190154295</v>
       </c>
       <c r="Q2">
-        <v>953.3192490280858</v>
+        <v>1209.180752340933</v>
       </c>
       <c r="R2">
-        <v>953.3192490280858</v>
+        <v>10882.6267710684</v>
       </c>
       <c r="S2">
-        <v>0.1842385883827552</v>
+        <v>0.1640545186765722</v>
       </c>
       <c r="T2">
-        <v>0.1842385883827552</v>
+        <v>0.1640545186765722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>83.6260662014964</v>
+        <v>91.06651433333333</v>
       </c>
       <c r="H3">
-        <v>83.6260662014964</v>
+        <v>273.199543</v>
       </c>
       <c r="I3">
-        <v>0.9199849828325732</v>
+        <v>0.9122283134451645</v>
       </c>
       <c r="J3">
-        <v>0.9199849828325732</v>
+        <v>0.9122283134451646</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.7838820788905</v>
+        <v>12.82191866666667</v>
       </c>
       <c r="N3">
-        <v>12.7838820788905</v>
+        <v>38.465756</v>
       </c>
       <c r="O3">
-        <v>0.2245773334237286</v>
+        <v>0.1736621427856523</v>
       </c>
       <c r="P3">
-        <v>0.2245773334237286</v>
+        <v>0.1736621427856523</v>
       </c>
       <c r="Q3">
-        <v>1069.06576904142</v>
+        <v>1167.647440038834</v>
       </c>
       <c r="R3">
-        <v>1069.06576904142</v>
+        <v>10508.82696034951</v>
       </c>
       <c r="S3">
-        <v>0.206607774234414</v>
+        <v>0.1584195236226289</v>
       </c>
       <c r="T3">
-        <v>0.206607774234414</v>
+        <v>0.1584195236226289</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>83.6260662014964</v>
+        <v>91.06651433333333</v>
       </c>
       <c r="H4">
-        <v>83.6260662014964</v>
+        <v>273.199543</v>
       </c>
       <c r="I4">
-        <v>0.9199849828325732</v>
+        <v>0.9122283134451645</v>
       </c>
       <c r="J4">
-        <v>0.9199849828325732</v>
+        <v>0.9122283134451646</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.900464211475082</v>
+        <v>1.027281</v>
       </c>
       <c r="N4">
-        <v>0.900464211475082</v>
+        <v>3.081843</v>
       </c>
       <c r="O4">
-        <v>0.01581865744760727</v>
+        <v>0.0139136602205079</v>
       </c>
       <c r="P4">
-        <v>0.01581865744760727</v>
+        <v>0.0139136602205079</v>
       </c>
       <c r="Q4">
-        <v>75.30227976089347</v>
+        <v>93.55089991086101</v>
       </c>
       <c r="R4">
-        <v>75.30227976089347</v>
+        <v>841.958099197749</v>
       </c>
       <c r="S4">
-        <v>0.01455292730037133</v>
+        <v>0.01269243479680299</v>
       </c>
       <c r="T4">
-        <v>0.01455292730037133</v>
+        <v>0.012692434796803</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>83.6260662014964</v>
+        <v>91.06651433333333</v>
       </c>
       <c r="H5">
-        <v>83.6260662014964</v>
+        <v>273.199543</v>
       </c>
       <c r="I5">
-        <v>0.9199849828325732</v>
+        <v>0.9122283134451645</v>
       </c>
       <c r="J5">
-        <v>0.9199849828325732</v>
+        <v>0.9122283134451646</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>31.8400546256608</v>
+        <v>0.331394</v>
       </c>
       <c r="N5">
-        <v>31.8400546256608</v>
+        <v>0.994182</v>
       </c>
       <c r="O5">
-        <v>0.559341405041914</v>
+        <v>0.00448845400150007</v>
       </c>
       <c r="P5">
-        <v>0.559341405041914</v>
+        <v>0.00448845400150007</v>
       </c>
       <c r="Q5">
-        <v>2662.658515984772</v>
+        <v>30.17889645098067</v>
       </c>
       <c r="R5">
-        <v>2662.658515984772</v>
+        <v>271.610068058826</v>
       </c>
       <c r="S5">
-        <v>0.5145856929150326</v>
+        <v>0.004094494823764609</v>
       </c>
       <c r="T5">
-        <v>0.5145856929150326</v>
+        <v>0.004094494823764609</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.31490838225643</v>
+        <v>91.06651433333333</v>
       </c>
       <c r="H6">
-        <v>3.31490838225643</v>
+        <v>273.199543</v>
       </c>
       <c r="I6">
-        <v>0.0364678869838692</v>
+        <v>0.9122283134451645</v>
       </c>
       <c r="J6">
-        <v>0.0364678869838692</v>
+        <v>0.9122283134451646</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>11.3997858841174</v>
+        <v>3.518391</v>
       </c>
       <c r="N6">
-        <v>11.3997858841174</v>
+        <v>10.555173</v>
       </c>
       <c r="O6">
-        <v>0.2002626040867501</v>
+        <v>0.04765365746752154</v>
       </c>
       <c r="P6">
-        <v>0.2002626040867501</v>
+        <v>0.04765365746752154</v>
       </c>
       <c r="Q6">
-        <v>37.78924578318929</v>
+        <v>320.4076044317709</v>
       </c>
       <c r="R6">
-        <v>37.78924578318929</v>
+        <v>2883.668439885939</v>
       </c>
       <c r="S6">
-        <v>0.007303154012930944</v>
+        <v>0.04347101558109074</v>
       </c>
       <c r="T6">
-        <v>0.007303154012930944</v>
+        <v>0.04347101558109075</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.31490838225643</v>
+        <v>91.06651433333333</v>
       </c>
       <c r="H7">
-        <v>3.31490838225643</v>
+        <v>273.199543</v>
       </c>
       <c r="I7">
-        <v>0.0364678869838692</v>
+        <v>0.9122283134451645</v>
       </c>
       <c r="J7">
-        <v>0.0364678869838692</v>
+        <v>0.9122283134451646</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.7838820788905</v>
+        <v>42.855569</v>
       </c>
       <c r="N7">
-        <v>12.7838820788905</v>
+        <v>128.566707</v>
       </c>
       <c r="O7">
-        <v>0.2245773334237286</v>
+        <v>0.5804427665093888</v>
       </c>
       <c r="P7">
-        <v>0.2245773334237286</v>
+        <v>0.5804427665093888</v>
       </c>
       <c r="Q7">
-        <v>42.37739786109187</v>
+        <v>3902.707288601656</v>
       </c>
       <c r="R7">
-        <v>42.37739786109187</v>
+        <v>35124.3655974149</v>
       </c>
       <c r="S7">
-        <v>0.008189860814435245</v>
+        <v>0.5294963259443052</v>
       </c>
       <c r="T7">
-        <v>0.008189860814435245</v>
+        <v>0.5294963259443052</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.31490838225643</v>
+        <v>3.316953</v>
       </c>
       <c r="H8">
-        <v>3.31490838225643</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I8">
-        <v>0.0364678869838692</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="J8">
-        <v>0.0364678869838692</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.900464211475082</v>
+        <v>13.27799533333333</v>
       </c>
       <c r="N8">
-        <v>0.900464211475082</v>
+        <v>39.833986</v>
       </c>
       <c r="O8">
-        <v>0.01581865744760727</v>
+        <v>0.1798393190154295</v>
       </c>
       <c r="P8">
-        <v>0.01581865744760727</v>
+        <v>0.1798393190154295</v>
       </c>
       <c r="Q8">
-        <v>2.984956362540676</v>
+        <v>44.04248645488599</v>
       </c>
       <c r="R8">
-        <v>2.984956362540676</v>
+        <v>396.382378093974</v>
       </c>
       <c r="S8">
-        <v>0.0005768730120358828</v>
+        <v>0.005975425016224996</v>
       </c>
       <c r="T8">
-        <v>0.0005768730120358828</v>
+        <v>0.005975425016224996</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,320 +962,320 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.31490838225643</v>
+        <v>3.316953</v>
       </c>
       <c r="H9">
-        <v>3.31490838225643</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I9">
-        <v>0.0364678869838692</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="J9">
-        <v>0.0364678869838692</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.8400546256608</v>
+        <v>12.82191866666667</v>
       </c>
       <c r="N9">
-        <v>31.8400546256608</v>
+        <v>38.465756</v>
       </c>
       <c r="O9">
-        <v>0.559341405041914</v>
+        <v>0.1736621427856523</v>
       </c>
       <c r="P9">
-        <v>0.559341405041914</v>
+        <v>0.1736621427856523</v>
       </c>
       <c r="Q9">
-        <v>105.5468639701056</v>
+        <v>42.529701587156</v>
       </c>
       <c r="R9">
-        <v>105.5468639701056</v>
+        <v>382.767314284404</v>
       </c>
       <c r="S9">
-        <v>0.02039799914446713</v>
+        <v>0.005770179280336313</v>
       </c>
       <c r="T9">
-        <v>0.02039799914446713</v>
+        <v>0.005770179280336313</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.31158843055035</v>
+        <v>3.316953</v>
       </c>
       <c r="H10">
-        <v>1.31158843055035</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I10">
-        <v>0.01442901375817285</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="J10">
-        <v>0.01442901375817285</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.3997858841174</v>
+        <v>1.027281</v>
       </c>
       <c r="N10">
-        <v>11.3997858841174</v>
+        <v>3.081843</v>
       </c>
       <c r="O10">
-        <v>0.2002626040867501</v>
+        <v>0.0139136602205079</v>
       </c>
       <c r="P10">
-        <v>0.2002626040867501</v>
+        <v>0.0139136602205079</v>
       </c>
       <c r="Q10">
-        <v>14.95182727635957</v>
+        <v>3.407442794793</v>
       </c>
       <c r="R10">
-        <v>14.95182727635957</v>
+        <v>30.666985153137</v>
       </c>
       <c r="S10">
-        <v>0.00288959186961524</v>
+        <v>0.0004623017580585054</v>
       </c>
       <c r="T10">
-        <v>0.00288959186961524</v>
+        <v>0.0004623017580585054</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.31158843055035</v>
+        <v>3.316953</v>
       </c>
       <c r="H11">
-        <v>1.31158843055035</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I11">
-        <v>0.01442901375817285</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="J11">
-        <v>0.01442901375817285</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>12.7838820788905</v>
+        <v>0.331394</v>
       </c>
       <c r="N11">
-        <v>12.7838820788905</v>
+        <v>0.994182</v>
       </c>
       <c r="O11">
-        <v>0.2245773334237286</v>
+        <v>0.00448845400150007</v>
       </c>
       <c r="P11">
-        <v>0.2245773334237286</v>
+        <v>0.00448845400150007</v>
       </c>
       <c r="Q11">
-        <v>16.76719183219274</v>
+        <v>1.099218322482</v>
       </c>
       <c r="R11">
-        <v>16.76719183219274</v>
+        <v>9.892964902337999</v>
       </c>
       <c r="S11">
-        <v>0.003240429433744752</v>
+        <v>0.0001491354642109027</v>
       </c>
       <c r="T11">
-        <v>0.003240429433744752</v>
+        <v>0.0001491354642109027</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.31158843055035</v>
+        <v>3.316953</v>
       </c>
       <c r="H12">
-        <v>1.31158843055035</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I12">
-        <v>0.01442901375817285</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="J12">
-        <v>0.01442901375817285</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.900464211475082</v>
+        <v>3.518391</v>
       </c>
       <c r="N12">
-        <v>0.900464211475082</v>
+        <v>10.555173</v>
       </c>
       <c r="O12">
-        <v>0.01581865744760727</v>
+        <v>0.04765365746752154</v>
       </c>
       <c r="P12">
-        <v>0.01581865744760727</v>
+        <v>0.04765365746752154</v>
       </c>
       <c r="Q12">
-        <v>1.181038441895361</v>
+        <v>11.670337582623</v>
       </c>
       <c r="R12">
-        <v>1.181038441895361</v>
+        <v>105.033038243607</v>
       </c>
       <c r="S12">
-        <v>0.0002282476259473488</v>
+        <v>0.001583362628956656</v>
       </c>
       <c r="T12">
-        <v>0.0002282476259473488</v>
+        <v>0.001583362628956656</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.31158843055035</v>
+        <v>3.316953</v>
       </c>
       <c r="H13">
-        <v>1.31158843055035</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I13">
-        <v>0.01442901375817285</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="J13">
-        <v>0.01442901375817285</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>31.8400546256608</v>
+        <v>42.855569</v>
       </c>
       <c r="N13">
-        <v>31.8400546256608</v>
+        <v>128.566707</v>
       </c>
       <c r="O13">
-        <v>0.559341405041914</v>
+        <v>0.5804427665093888</v>
       </c>
       <c r="P13">
-        <v>0.559341405041914</v>
+        <v>0.5804427665093888</v>
       </c>
       <c r="Q13">
-        <v>41.76104727510786</v>
+        <v>142.149908161257</v>
       </c>
       <c r="R13">
-        <v>41.76104727510786</v>
+        <v>1279.349173451313</v>
       </c>
       <c r="S13">
-        <v>0.008070744828865512</v>
+        <v>0.01928606183828727</v>
       </c>
       <c r="T13">
-        <v>0.008070744828865512</v>
+        <v>0.01928606183828727</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1281,60 +1284,60 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.64681878214447</v>
+        <v>0.07257466666666666</v>
       </c>
       <c r="H14">
-        <v>2.64681878214447</v>
+        <v>0.217724</v>
       </c>
       <c r="I14">
-        <v>0.02911811642538484</v>
+        <v>0.0007269924214936736</v>
       </c>
       <c r="J14">
-        <v>0.02911811642538484</v>
+        <v>0.0007269924214936736</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.3997858841174</v>
+        <v>13.27799533333333</v>
       </c>
       <c r="N14">
-        <v>11.3997858841174</v>
+        <v>39.833986</v>
       </c>
       <c r="O14">
-        <v>0.2002626040867501</v>
+        <v>0.1798393190154295</v>
       </c>
       <c r="P14">
-        <v>0.2002626040867501</v>
+        <v>0.1798393190154295</v>
       </c>
       <c r="Q14">
-        <v>30.17316739050734</v>
+        <v>0.963646085318222</v>
       </c>
       <c r="R14">
-        <v>30.17316739050734</v>
+        <v>8.672814767863999</v>
       </c>
       <c r="S14">
-        <v>0.005831269821448739</v>
+        <v>0.0001307418220108004</v>
       </c>
       <c r="T14">
-        <v>0.005831269821448739</v>
+        <v>0.0001307418220108004</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1343,122 +1346,122 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.64681878214447</v>
+        <v>0.07257466666666666</v>
       </c>
       <c r="H15">
-        <v>2.64681878214447</v>
+        <v>0.217724</v>
       </c>
       <c r="I15">
-        <v>0.02911811642538484</v>
+        <v>0.0007269924214936736</v>
       </c>
       <c r="J15">
-        <v>0.02911811642538484</v>
+        <v>0.0007269924214936736</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.7838820788905</v>
+        <v>12.82191866666667</v>
       </c>
       <c r="N15">
-        <v>12.7838820788905</v>
+        <v>38.465756</v>
       </c>
       <c r="O15">
-        <v>0.2245773334237286</v>
+        <v>0.1736621427856523</v>
       </c>
       <c r="P15">
-        <v>0.2245773334237286</v>
+        <v>0.1736621427856523</v>
       </c>
       <c r="Q15">
-        <v>33.83661919512747</v>
+        <v>0.9305464732604444</v>
       </c>
       <c r="R15">
-        <v>33.83661919512747</v>
+        <v>8.374918259344</v>
       </c>
       <c r="S15">
-        <v>0.0065392689411346</v>
+        <v>0.0001262510617055214</v>
       </c>
       <c r="T15">
-        <v>0.0065392689411346</v>
+        <v>0.0001262510617055214</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>2.64681878214447</v>
+        <v>0.07257466666666666</v>
       </c>
       <c r="H16">
-        <v>2.64681878214447</v>
+        <v>0.217724</v>
       </c>
       <c r="I16">
-        <v>0.02911811642538484</v>
+        <v>0.0007269924214936736</v>
       </c>
       <c r="J16">
-        <v>0.02911811642538484</v>
+        <v>0.0007269924214936736</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.900464211475082</v>
+        <v>1.027281</v>
       </c>
       <c r="N16">
-        <v>0.900464211475082</v>
+        <v>3.081843</v>
       </c>
       <c r="O16">
-        <v>0.01581865744760727</v>
+        <v>0.0139136602205079</v>
       </c>
       <c r="P16">
-        <v>0.01581865744760727</v>
+        <v>0.0139136602205079</v>
       </c>
       <c r="Q16">
-        <v>2.383365587581157</v>
+        <v>0.074554576148</v>
       </c>
       <c r="R16">
-        <v>2.383365587581157</v>
+        <v>0.670991185332</v>
       </c>
       <c r="S16">
-        <v>0.0004606095092527096</v>
+        <v>1.011512553554724E-05</v>
       </c>
       <c r="T16">
-        <v>0.0004606095092527096</v>
+        <v>1.011512553554724E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1467,49 +1470,1289 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>2.64681878214447</v>
+        <v>0.07257466666666666</v>
       </c>
       <c r="H17">
-        <v>2.64681878214447</v>
+        <v>0.217724</v>
       </c>
       <c r="I17">
-        <v>0.02911811642538484</v>
+        <v>0.0007269924214936736</v>
       </c>
       <c r="J17">
-        <v>0.02911811642538484</v>
+        <v>0.0007269924214936736</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>31.8400546256608</v>
+        <v>0.331394</v>
       </c>
       <c r="N17">
-        <v>31.8400546256608</v>
+        <v>0.994182</v>
       </c>
       <c r="O17">
-        <v>0.559341405041914</v>
+        <v>0.00448845400150007</v>
       </c>
       <c r="P17">
-        <v>0.559341405041914</v>
+        <v>0.00448845400150007</v>
       </c>
       <c r="Q17">
-        <v>84.27485460770492</v>
+        <v>0.02405080908533333</v>
       </c>
       <c r="R17">
-        <v>84.27485460770492</v>
+        <v>0.216457281768</v>
       </c>
       <c r="S17">
-        <v>0.01628696815354879</v>
+        <v>3.263072043313505E-06</v>
       </c>
       <c r="T17">
-        <v>0.01628696815354879</v>
+        <v>3.263072043313505E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.07257466666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.217724</v>
+      </c>
+      <c r="I18">
+        <v>0.0007269924214936736</v>
+      </c>
+      <c r="J18">
+        <v>0.0007269924214936736</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>3.518391</v>
+      </c>
+      <c r="N18">
+        <v>10.555173</v>
+      </c>
+      <c r="O18">
+        <v>0.04765365746752154</v>
+      </c>
+      <c r="P18">
+        <v>0.04765365746752154</v>
+      </c>
+      <c r="Q18">
+        <v>0.255346054028</v>
+      </c>
+      <c r="R18">
+        <v>2.298114486252</v>
+      </c>
+      <c r="S18">
+        <v>3.464384783534356E-05</v>
+      </c>
+      <c r="T18">
+        <v>3.464384783534356E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.07257466666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.217724</v>
+      </c>
+      <c r="I19">
+        <v>0.0007269924214936736</v>
+      </c>
+      <c r="J19">
+        <v>0.0007269924214936736</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>42.855569</v>
+      </c>
+      <c r="N19">
+        <v>128.566707</v>
+      </c>
+      <c r="O19">
+        <v>0.5804427665093888</v>
+      </c>
+      <c r="P19">
+        <v>0.5804427665093888</v>
+      </c>
+      <c r="Q19">
+        <v>3.110228634985333</v>
+      </c>
+      <c r="R19">
+        <v>27.992057714868</v>
+      </c>
+      <c r="S19">
+        <v>0.0004219774923631475</v>
+      </c>
+      <c r="T19">
+        <v>0.0004219774923631475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.187537</v>
+      </c>
+      <c r="H20">
+        <v>0.562611</v>
+      </c>
+      <c r="I20">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="J20">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>13.27799533333333</v>
+      </c>
+      <c r="N20">
+        <v>39.833986</v>
+      </c>
+      <c r="O20">
+        <v>0.1798393190154295</v>
+      </c>
+      <c r="P20">
+        <v>0.1798393190154295</v>
+      </c>
+      <c r="Q20">
+        <v>2.490115410827333</v>
+      </c>
+      <c r="R20">
+        <v>22.411038697446</v>
+      </c>
+      <c r="S20">
+        <v>0.0003378441844873252</v>
+      </c>
+      <c r="T20">
+        <v>0.0003378441844873253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.187537</v>
+      </c>
+      <c r="H21">
+        <v>0.562611</v>
+      </c>
+      <c r="I21">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="J21">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.82191866666667</v>
+      </c>
+      <c r="N21">
+        <v>38.465756</v>
+      </c>
+      <c r="O21">
+        <v>0.1736621427856523</v>
+      </c>
+      <c r="P21">
+        <v>0.1736621427856523</v>
+      </c>
+      <c r="Q21">
+        <v>2.404584160990666</v>
+      </c>
+      <c r="R21">
+        <v>21.641257448916</v>
+      </c>
+      <c r="S21">
+        <v>0.0003262398085521353</v>
+      </c>
+      <c r="T21">
+        <v>0.0003262398085521354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.187537</v>
+      </c>
+      <c r="H22">
+        <v>0.562611</v>
+      </c>
+      <c r="I22">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="J22">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.027281</v>
+      </c>
+      <c r="N22">
+        <v>3.081843</v>
+      </c>
+      <c r="O22">
+        <v>0.0139136602205079</v>
+      </c>
+      <c r="P22">
+        <v>0.0139136602205079</v>
+      </c>
+      <c r="Q22">
+        <v>0.192653196897</v>
+      </c>
+      <c r="R22">
+        <v>1.733878772073</v>
+      </c>
+      <c r="S22">
+        <v>2.613805043394282E-05</v>
+      </c>
+      <c r="T22">
+        <v>2.613805043394282E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.187537</v>
+      </c>
+      <c r="H23">
+        <v>0.562611</v>
+      </c>
+      <c r="I23">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="J23">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.331394</v>
+      </c>
+      <c r="N23">
+        <v>0.994182</v>
+      </c>
+      <c r="O23">
+        <v>0.00448845400150007</v>
+      </c>
+      <c r="P23">
+        <v>0.00448845400150007</v>
+      </c>
+      <c r="Q23">
+        <v>0.062148636578</v>
+      </c>
+      <c r="R23">
+        <v>0.559337729202</v>
+      </c>
+      <c r="S23">
+        <v>8.431960763905927E-06</v>
+      </c>
+      <c r="T23">
+        <v>8.431960763905929E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.187537</v>
+      </c>
+      <c r="H24">
+        <v>0.562611</v>
+      </c>
+      <c r="I24">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="J24">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>3.518391</v>
+      </c>
+      <c r="N24">
+        <v>10.555173</v>
+      </c>
+      <c r="O24">
+        <v>0.04765365746752154</v>
+      </c>
+      <c r="P24">
+        <v>0.04765365746752154</v>
+      </c>
+      <c r="Q24">
+        <v>0.6598284929669999</v>
+      </c>
+      <c r="R24">
+        <v>5.938456436702999</v>
+      </c>
+      <c r="S24">
+        <v>8.952164150250076E-05</v>
+      </c>
+      <c r="T24">
+        <v>8.952164150250078E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.187537</v>
+      </c>
+      <c r="H25">
+        <v>0.562611</v>
+      </c>
+      <c r="I25">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="J25">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>42.855569</v>
+      </c>
+      <c r="N25">
+        <v>128.566707</v>
+      </c>
+      <c r="O25">
+        <v>0.5804427665093888</v>
+      </c>
+      <c r="P25">
+        <v>0.5804427665093888</v>
+      </c>
+      <c r="Q25">
+        <v>8.037004843552999</v>
+      </c>
+      <c r="R25">
+        <v>72.333043591977</v>
+      </c>
+      <c r="S25">
+        <v>0.00109041345444656</v>
+      </c>
+      <c r="T25">
+        <v>0.00109041345444656</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.342960666666667</v>
+      </c>
+      <c r="H26">
+        <v>4.028882</v>
+      </c>
+      <c r="I26">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="J26">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>13.27799533333333</v>
+      </c>
+      <c r="N26">
+        <v>39.833986</v>
+      </c>
+      <c r="O26">
+        <v>0.1798393190154295</v>
+      </c>
+      <c r="P26">
+        <v>0.1798393190154295</v>
+      </c>
+      <c r="Q26">
+        <v>17.83182546485022</v>
+      </c>
+      <c r="R26">
+        <v>160.486429183652</v>
+      </c>
+      <c r="S26">
+        <v>0.002419316994665344</v>
+      </c>
+      <c r="T26">
+        <v>0.002419316994665344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.342960666666667</v>
+      </c>
+      <c r="H27">
+        <v>4.028882</v>
+      </c>
+      <c r="I27">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="J27">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>12.82191866666667</v>
+      </c>
+      <c r="N27">
+        <v>38.465756</v>
+      </c>
+      <c r="O27">
+        <v>0.1736621427856523</v>
+      </c>
+      <c r="P27">
+        <v>0.1736621427856523</v>
+      </c>
+      <c r="Q27">
+        <v>17.21933244053244</v>
+      </c>
+      <c r="R27">
+        <v>154.973991964792</v>
+      </c>
+      <c r="S27">
+        <v>0.002336217550597383</v>
+      </c>
+      <c r="T27">
+        <v>0.002336217550597383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.342960666666667</v>
+      </c>
+      <c r="H28">
+        <v>4.028882</v>
+      </c>
+      <c r="I28">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="J28">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.027281</v>
+      </c>
+      <c r="N28">
+        <v>3.081843</v>
+      </c>
+      <c r="O28">
+        <v>0.0139136602205079</v>
+      </c>
+      <c r="P28">
+        <v>0.0139136602205079</v>
+      </c>
+      <c r="Q28">
+        <v>1.379597976614</v>
+      </c>
+      <c r="R28">
+        <v>12.416381789526</v>
+      </c>
+      <c r="S28">
+        <v>0.0001871757233833047</v>
+      </c>
+      <c r="T28">
+        <v>0.0001871757233833047</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.342960666666667</v>
+      </c>
+      <c r="H29">
+        <v>4.028882</v>
+      </c>
+      <c r="I29">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="J29">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.331394</v>
+      </c>
+      <c r="N29">
+        <v>0.994182</v>
+      </c>
+      <c r="O29">
+        <v>0.00448845400150007</v>
+      </c>
+      <c r="P29">
+        <v>0.00448845400150007</v>
+      </c>
+      <c r="Q29">
+        <v>0.4450491071693334</v>
+      </c>
+      <c r="R29">
+        <v>4.005441964524</v>
+      </c>
+      <c r="S29">
+        <v>6.038164014995592E-05</v>
+      </c>
+      <c r="T29">
+        <v>6.038164014995592E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.342960666666667</v>
+      </c>
+      <c r="H30">
+        <v>4.028882</v>
+      </c>
+      <c r="I30">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="J30">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>3.518391</v>
+      </c>
+      <c r="N30">
+        <v>10.555173</v>
+      </c>
+      <c r="O30">
+        <v>0.04765365746752154</v>
+      </c>
+      <c r="P30">
+        <v>0.04765365746752154</v>
+      </c>
+      <c r="Q30">
+        <v>4.725060722954</v>
+      </c>
+      <c r="R30">
+        <v>42.525546506586</v>
+      </c>
+      <c r="S30">
+        <v>0.0006410683937212006</v>
+      </c>
+      <c r="T30">
+        <v>0.0006410683937212006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.342960666666667</v>
+      </c>
+      <c r="H31">
+        <v>4.028882</v>
+      </c>
+      <c r="I31">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="J31">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>42.855569</v>
+      </c>
+      <c r="N31">
+        <v>128.566707</v>
+      </c>
+      <c r="O31">
+        <v>0.5804427665093888</v>
+      </c>
+      <c r="P31">
+        <v>0.5804427665093888</v>
+      </c>
+      <c r="Q31">
+        <v>57.55334351461934</v>
+      </c>
+      <c r="R31">
+        <v>517.9800916315741</v>
+      </c>
+      <c r="S31">
+        <v>0.00780849848150421</v>
+      </c>
+      <c r="T31">
+        <v>0.00780849848150421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.842103</v>
+      </c>
+      <c r="H32">
+        <v>11.526309</v>
+      </c>
+      <c r="I32">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="J32">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>13.27799533333333</v>
+      </c>
+      <c r="N32">
+        <v>39.833986</v>
+      </c>
+      <c r="O32">
+        <v>0.1798393190154295</v>
+      </c>
+      <c r="P32">
+        <v>0.1798393190154295</v>
+      </c>
+      <c r="Q32">
+        <v>51.01542570418599</v>
+      </c>
+      <c r="R32">
+        <v>459.138831337674</v>
+      </c>
+      <c r="S32">
+        <v>0.006921472321468863</v>
+      </c>
+      <c r="T32">
+        <v>0.006921472321468863</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.842103</v>
+      </c>
+      <c r="H33">
+        <v>11.526309</v>
+      </c>
+      <c r="I33">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="J33">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>12.82191866666667</v>
+      </c>
+      <c r="N33">
+        <v>38.465756</v>
+      </c>
+      <c r="O33">
+        <v>0.1736621427856523</v>
+      </c>
+      <c r="P33">
+        <v>0.1736621427856523</v>
+      </c>
+      <c r="Q33">
+        <v>49.26313217495601</v>
+      </c>
+      <c r="R33">
+        <v>443.3681895746041</v>
+      </c>
+      <c r="S33">
+        <v>0.006683731461831986</v>
+      </c>
+      <c r="T33">
+        <v>0.006683731461831986</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.842103</v>
+      </c>
+      <c r="H34">
+        <v>11.526309</v>
+      </c>
+      <c r="I34">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="J34">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.027281</v>
+      </c>
+      <c r="N34">
+        <v>3.081843</v>
+      </c>
+      <c r="O34">
+        <v>0.0139136602205079</v>
+      </c>
+      <c r="P34">
+        <v>0.0139136602205079</v>
+      </c>
+      <c r="Q34">
+        <v>3.946919411943001</v>
+      </c>
+      <c r="R34">
+        <v>35.52227470748701</v>
+      </c>
+      <c r="S34">
+        <v>0.0005354947662936008</v>
+      </c>
+      <c r="T34">
+        <v>0.0005354947662936008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.842103</v>
+      </c>
+      <c r="H35">
+        <v>11.526309</v>
+      </c>
+      <c r="I35">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="J35">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.331394</v>
+      </c>
+      <c r="N35">
+        <v>0.994182</v>
+      </c>
+      <c r="O35">
+        <v>0.00448845400150007</v>
+      </c>
+      <c r="P35">
+        <v>0.00448845400150007</v>
+      </c>
+      <c r="Q35">
+        <v>1.273249881582</v>
+      </c>
+      <c r="R35">
+        <v>11.459248934238</v>
+      </c>
+      <c r="S35">
+        <v>0.0001727470405673828</v>
+      </c>
+      <c r="T35">
+        <v>0.0001727470405673828</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.842103</v>
+      </c>
+      <c r="H36">
+        <v>11.526309</v>
+      </c>
+      <c r="I36">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="J36">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>3.518391</v>
+      </c>
+      <c r="N36">
+        <v>10.555173</v>
+      </c>
+      <c r="O36">
+        <v>0.04765365746752154</v>
+      </c>
+      <c r="P36">
+        <v>0.04765365746752154</v>
+      </c>
+      <c r="Q36">
+        <v>13.518020616273</v>
+      </c>
+      <c r="R36">
+        <v>121.662185546457</v>
+      </c>
+      <c r="S36">
+        <v>0.00183404537441509</v>
+      </c>
+      <c r="T36">
+        <v>0.00183404537441509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.842103</v>
+      </c>
+      <c r="H37">
+        <v>11.526309</v>
+      </c>
+      <c r="I37">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="J37">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>42.855569</v>
+      </c>
+      <c r="N37">
+        <v>128.566707</v>
+      </c>
+      <c r="O37">
+        <v>0.5804427665093888</v>
+      </c>
+      <c r="P37">
+        <v>0.5804427665093888</v>
+      </c>
+      <c r="Q37">
+        <v>164.655510221607</v>
+      </c>
+      <c r="R37">
+        <v>1481.899591994463</v>
+      </c>
+      <c r="S37">
+        <v>0.02233948929848239</v>
+      </c>
+      <c r="T37">
+        <v>0.02233948929848239</v>
       </c>
     </row>
   </sheetData>
